--- a/Data/Temp/Yearly-Report-2021-IT213456.xlsx
+++ b/Data/Temp/Yearly-Report-2021-IT213456.xlsx
@@ -14,7 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <x:si>
+    <x:t>339040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16484.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98908.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52010.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-26</x:t>
+  </x:si>
   <x:si>
     <x:t>254423</x:t>
   </x:si>
@@ -22,58 +64,37 @@
     <x:t>Waste management services</x:t>
   </x:si>
   <x:si>
+    <x:t>97485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116982</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-08-15</x:t>
   </x:si>
   <x:si>
-    <x:t>97485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
     <x:t>614399</x:t>
   </x:si>
   <x:si>
     <x:t>Concierge Services</x:t>
   </x:si>
   <x:si>
+    <x:t>279738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55947.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
     <x:t>2017-08-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55947.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52010.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>312064</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,10 +514,33 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>6</x:v>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
